--- a/multi_channel/document/公测渠道参数.xlsx
+++ b/multi_channel/document/公测渠道参数.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9540"/>
+    <workbookView windowWidth="23895" windowHeight="10350"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -130,10 +130,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -158,6 +158,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FFFFC000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -165,76 +202,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -248,7 +233,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -271,39 +301,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -318,187 +318,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -528,16 +528,31 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -560,6 +575,30 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -570,37 +609,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -615,166 +624,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -790,7 +790,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1144,14 +1147,14 @@
   <sheetPr/>
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="20.7777777777778" style="1" customWidth="1"/>
-    <col min="2" max="2" width="29.4444444444444" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.775" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.4416666666667" style="1" customWidth="1"/>
     <col min="3" max="3" width="37" style="1" customWidth="1"/>
     <col min="4" max="4" width="99.6666666666667" style="1" customWidth="1"/>
   </cols>
@@ -1185,10 +1188,10 @@
       <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="5"/>
+      <c r="D3" s="3"/>
     </row>
     <row r="4" ht="36" spans="1:4">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -1197,10 +1200,10 @@
       <c r="C4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="5"/>
+      <c r="D4" s="3"/>
     </row>
-    <row r="5" ht="60" spans="1:4">
-      <c r="A5" s="3" t="s">
+    <row r="5" ht="48" spans="1:4">
+      <c r="A5" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -1209,10 +1212,10 @@
       <c r="C5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="5"/>
+      <c r="D5" s="3"/>
     </row>
     <row r="6" ht="96" spans="1:4">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -1221,10 +1224,10 @@
       <c r="C6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="5"/>
+      <c r="D6" s="3"/>
     </row>
-    <row r="7" ht="60" spans="1:4">
-      <c r="A7" s="3" t="s">
+    <row r="7" ht="48" spans="1:4">
+      <c r="A7" s="6" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -1233,10 +1236,10 @@
       <c r="C7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="5"/>
+      <c r="D7" s="3"/>
     </row>
     <row r="8" ht="36" spans="1:4">
-      <c r="A8" s="5">
+      <c r="A8" s="3">
         <v>4399</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -1245,10 +1248,10 @@
       <c r="C8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="5"/>
+      <c r="D8" s="3"/>
     </row>
-    <row r="9" ht="60" spans="1:4">
-      <c r="A9" s="5">
+    <row r="9" ht="36" spans="1:4">
+      <c r="A9" s="3">
         <v>360</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -1257,9 +1260,9 @@
       <c r="C9" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="5"/>
+      <c r="D9" s="3"/>
     </row>
-    <row r="10" ht="168" spans="1:4">
+    <row r="10" ht="144" spans="1:4">
       <c r="A10" s="3" t="s">
         <v>24</v>
       </c>
@@ -1289,7 +1292,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1306,7 +1309,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
